--- a/ES calc/Descriptive coding scheme for group-based interventions (data) MHV.xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data) MHV.xlsx
@@ -29,7 +29,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="156">
   <si>
     <t>authors</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Recovery rates (ADIS)</t>
   </si>
   <si>
-    <t>Adj. emmeans</t>
-  </si>
-  <si>
     <t>Geriatric Anxiety Inventory (GAI)</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>Recovery Is Up to You</t>
   </si>
   <si>
-    <t>No clear programme theory</t>
-  </si>
-  <si>
     <t>Reseachers</t>
   </si>
   <si>
@@ -520,6 +514,18 @@
   </si>
   <si>
     <t>outcome_measure</t>
+  </si>
+  <si>
+    <t>time_after_end_intervention</t>
+  </si>
+  <si>
+    <t>time_from_baseline</t>
+  </si>
+  <si>
+    <t>DiD emmeans</t>
+  </si>
+  <si>
+    <t>Multi-faceted including psychoeducation</t>
   </si>
 </sst>
 </file>
@@ -910,11 +916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK1" sqref="AK1"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,23 +966,25 @@
     <col min="40" max="40" width="59.42578125" style="1" customWidth="1"/>
     <col min="41" max="41" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="59.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.5703125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="11.85546875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="28.42578125" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14" style="1" customWidth="1"/>
+    <col min="43" max="43" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="59.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.5703125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="11.85546875" style="1" customWidth="1"/>
+    <col min="50" max="50" width="28.42578125" style="1" customWidth="1"/>
     <col min="51" max="51" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" style="1" customWidth="1"/>
-    <col min="54" max="55" width="13.140625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="1"/>
+    <col min="52" max="52" width="14" style="1" customWidth="1"/>
+    <col min="53" max="53" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.140625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="14.42578125" style="1" customWidth="1"/>
+    <col min="56" max="57" width="13.140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>6</v>
@@ -1086,7 +1094,7 @@
         <v>85</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>84</v>
@@ -1104,51 +1112,57 @@
         <v>29</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4">
         <v>2012</v>
@@ -1175,28 +1189,28 @@
         <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M2" s="4">
         <v>34</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>50</v>
@@ -1205,10 +1219,10 @@
         <v>51</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>52</v>
@@ -1226,10 +1240,10 @@
         <v>1</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC2" s="6">
         <v>7</v>
@@ -1244,7 +1258,7 @@
         <v>48</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH2" s="6" t="s">
         <v>53</v>
@@ -1253,10 +1267,10 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL2" s="6" t="s">
         <v>54</v>
@@ -1265,7 +1279,7 @@
         <v>55</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>56</v>
@@ -1273,52 +1287,58 @@
       <c r="AP2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BA2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BC2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BE2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BF2" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4">
         <v>2012</v>
@@ -1345,28 +1365,28 @@
         <v>58</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M3" s="4">
         <v>34</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>50</v>
@@ -1375,10 +1395,10 @@
         <v>51</v>
       </c>
       <c r="T3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>52</v>
@@ -1396,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC3" s="6">
         <v>7</v>
@@ -1414,7 +1434,7 @@
         <v>48</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH3" s="6" t="s">
         <v>53</v>
@@ -1423,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL3" s="6" t="s">
         <v>54</v>
@@ -1435,60 +1455,66 @@
         <v>55</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>141</v>
+      <c r="AQ3" s="6">
+        <v>24</v>
+      </c>
+      <c r="AR3" s="6">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AX3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="BA3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB3" s="6" t="s">
+      <c r="BC3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC3" s="6" t="s">
+      <c r="BE3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BF3" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4">
         <v>2012</v>
@@ -1515,28 +1541,28 @@
         <v>58</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M4" s="4">
         <v>34</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>50</v>
@@ -1545,10 +1571,10 @@
         <v>51</v>
       </c>
       <c r="T4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V4" s="6" t="s">
         <v>52</v>
@@ -1566,10 +1592,10 @@
         <v>1</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC4" s="6">
         <v>7</v>
@@ -1584,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH4" s="6" t="s">
         <v>53</v>
@@ -1593,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL4" s="6" t="s">
         <v>54</v>
@@ -1605,7 +1631,7 @@
         <v>55</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AO4" s="6" t="s">
         <v>56</v>
@@ -1613,52 +1639,58 @@
       <c r="AP4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ4" s="6" t="s">
+      <c r="AQ4" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="AT4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX4" s="6" t="s">
+      <c r="AX4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
+      <c r="BA4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB4" s="6" t="s">
+      <c r="BC4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC4" s="6" t="s">
+      <c r="BE4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD4" s="6" t="s">
+      <c r="BF4" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4">
         <v>2012</v>
@@ -1685,28 +1717,28 @@
         <v>58</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M5" s="4">
         <v>34</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>50</v>
@@ -1715,10 +1747,10 @@
         <v>51</v>
       </c>
       <c r="T5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V5" s="6" t="s">
         <v>52</v>
@@ -1736,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC5" s="6">
         <v>7</v>
@@ -1754,7 +1786,7 @@
         <v>48</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH5" s="6" t="s">
         <v>53</v>
@@ -1763,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AL5" s="6" t="s">
         <v>54</v>
@@ -1775,60 +1807,66 @@
         <v>55</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>141</v>
+      <c r="AQ5" s="6">
+        <v>24</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>12</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX5" s="6" t="s">
+      <c r="AX5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
+      <c r="BA5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB5" s="6" t="s">
+      <c r="BC5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC5" s="6" t="s">
+      <c r="BE5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD5" s="6" t="s">
+      <c r="BF5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4">
         <v>2012</v>
@@ -1855,28 +1893,28 @@
         <v>58</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M6" s="4">
         <v>34</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>50</v>
@@ -1885,10 +1923,10 @@
         <v>51</v>
       </c>
       <c r="T6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U6" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V6" s="6" t="s">
         <v>52</v>
@@ -1906,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC6" s="6">
         <v>7</v>
@@ -1924,7 +1962,7 @@
         <v>48</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH6" s="6" t="s">
         <v>53</v>
@@ -1945,7 +1983,7 @@
         <v>55</v>
       </c>
       <c r="AN6" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AO6" s="6" t="s">
         <v>56</v>
@@ -1953,52 +1991,58 @@
       <c r="AP6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ6" s="6" t="s">
+      <c r="AQ6" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AT6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU6" s="6" t="s">
+      <c r="AW6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV6" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX6" s="6" t="s">
+      <c r="AX6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ6" s="6" t="s">
+      <c r="BA6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB6" s="6" t="s">
+      <c r="BC6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC6" s="6" t="s">
+      <c r="BE6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD6" s="6" t="s">
+      <c r="BF6" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4">
         <v>2012</v>
@@ -2025,28 +2069,28 @@
         <v>58</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M7" s="4">
         <v>34</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>50</v>
@@ -2055,10 +2099,10 @@
         <v>51</v>
       </c>
       <c r="T7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V7" s="6" t="s">
         <v>52</v>
@@ -2076,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC7" s="6">
         <v>7</v>
@@ -2094,7 +2138,7 @@
         <v>48</v>
       </c>
       <c r="AG7" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH7" s="6" t="s">
         <v>53</v>
@@ -2115,60 +2159,66 @@
         <v>55</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AO7" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>141</v>
+      <c r="AQ7" s="6">
+        <v>24</v>
+      </c>
+      <c r="AR7" s="6">
+        <v>12</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX7" s="6" t="s">
+      <c r="AX7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ7" s="6" t="s">
+      <c r="BA7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB7" s="6" t="s">
+      <c r="BC7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC7" s="6" t="s">
+      <c r="BE7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD7" s="6" t="s">
+      <c r="BF7" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4">
         <v>2012</v>
@@ -2195,28 +2245,28 @@
         <v>58</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M8" s="4">
         <v>34</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>50</v>
@@ -2225,10 +2275,10 @@
         <v>51</v>
       </c>
       <c r="T8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V8" s="6" t="s">
         <v>52</v>
@@ -2246,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC8" s="6">
         <v>7</v>
@@ -2264,7 +2314,7 @@
         <v>48</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH8" s="6" t="s">
         <v>53</v>
@@ -2273,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL8" s="6" t="s">
         <v>54</v>
@@ -2285,7 +2335,7 @@
         <v>55</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO8" s="6" t="s">
         <v>56</v>
@@ -2293,52 +2343,58 @@
       <c r="AP8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ8" s="6" t="s">
+      <c r="AQ8" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="AT8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AW8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX8" s="6" t="s">
+      <c r="AX8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ8" s="6" t="s">
+      <c r="BA8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB8" s="6" t="s">
+      <c r="BC8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC8" s="6" t="s">
+      <c r="BE8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD8" s="6" t="s">
+      <c r="BF8" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4">
         <v>2012</v>
@@ -2365,28 +2421,28 @@
         <v>58</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M9" s="4">
         <v>34</v>
       </c>
       <c r="N9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>50</v>
@@ -2395,10 +2451,10 @@
         <v>51</v>
       </c>
       <c r="T9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V9" s="6" t="s">
         <v>52</v>
@@ -2416,10 +2472,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC9" s="6">
         <v>7</v>
@@ -2434,7 +2490,7 @@
         <v>48</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>53</v>
@@ -2443,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AL9" s="6" t="s">
         <v>54</v>
@@ -2455,60 +2511,66 @@
         <v>55</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO9" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>141</v>
+      <c r="AQ9" s="6">
+        <v>24</v>
+      </c>
+      <c r="AR9" s="6">
+        <v>12</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX9" s="6" t="s">
+      <c r="AX9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ9" s="6" t="s">
+      <c r="BA9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB9" s="6" t="s">
+      <c r="BC9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC9" s="6" t="s">
+      <c r="BE9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD9" s="6" t="s">
+      <c r="BF9" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="4">
         <v>2012</v>
@@ -2535,28 +2597,28 @@
         <v>58</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M10" s="4">
         <v>34</v>
       </c>
       <c r="N10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>50</v>
@@ -2565,10 +2627,10 @@
         <v>51</v>
       </c>
       <c r="T10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U10" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V10" s="6" t="s">
         <v>52</v>
@@ -2586,10 +2648,10 @@
         <v>1</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC10" s="6">
         <v>7</v>
@@ -2604,7 +2666,7 @@
         <v>48</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH10" s="6" t="s">
         <v>53</v>
@@ -2613,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AL10" s="6" t="s">
         <v>54</v>
@@ -2625,7 +2687,7 @@
         <v>55</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AO10" s="6" t="s">
         <v>56</v>
@@ -2633,52 +2695,58 @@
       <c r="AP10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ10" s="6" t="s">
+      <c r="AQ10" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT10" s="6" t="s">
+      <c r="AT10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX10" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AU10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX10" s="6" t="s">
+      <c r="AY10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ10" s="6" t="s">
+      <c r="BA10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB10" s="6" t="s">
+      <c r="BC10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC10" s="6" t="s">
+      <c r="BE10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD10" s="6" t="s">
+      <c r="BF10" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:56" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="4">
         <v>2012</v>
@@ -2705,28 +2773,28 @@
         <v>58</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M11" s="4">
         <v>34</v>
       </c>
       <c r="N11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>50</v>
@@ -2735,10 +2803,10 @@
         <v>51</v>
       </c>
       <c r="T11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="V11" s="6" t="s">
         <v>52</v>
@@ -2756,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AC11" s="6">
         <v>7</v>
@@ -2774,7 +2842,7 @@
         <v>48</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AH11" s="6" t="s">
         <v>53</v>
@@ -2783,10 +2851,10 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AL11" s="6" t="s">
         <v>54</v>
@@ -2795,58 +2863,64 @@
         <v>55</v>
       </c>
       <c r="AN11" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AO11" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AP11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT11" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU11" s="6" t="s">
+      <c r="AQ11" s="6">
+        <v>24</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>12</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX11" s="6" t="s">
+      <c r="AX11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AY11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ11" s="6" t="s">
+      <c r="BA11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB11" s="6" t="s">
+      <c r="BC11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC11" s="6" t="s">
+      <c r="BE11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD11" s="6" t="s">
+      <c r="BF11" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:56" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
@@ -2908,7 +2982,7 @@
         <v>75</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V12" s="6" t="s">
         <v>52</v>
@@ -2973,52 +3047,58 @@
       <c r="AP12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ12" s="6" t="s">
+      <c r="AQ12" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS12" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="AT12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AU12" s="6" t="s">
+      <c r="AW12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW12" s="6" t="s">
+      <c r="AX12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX12" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY12" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA12" s="6" t="s">
+      <c r="BC12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB12" s="6" t="s">
+      <c r="BD12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC12" s="6" t="s">
+      <c r="BE12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD12" s="6" t="s">
-        <v>113</v>
+      <c r="BF12" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="4">
         <v>2021</v>
@@ -3078,7 +3158,7 @@
         <v>75</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V13" s="6" t="s">
         <v>52</v>
@@ -3143,52 +3223,58 @@
       <c r="AP13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ13" s="6" t="s">
+      <c r="AQ13" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS13" s="6" t="s">
+      <c r="AT13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AT13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW13" s="6" t="s">
+      <c r="AY13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA13" s="6" t="s">
+      <c r="BC13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB13" s="6" t="s">
+      <c r="BD13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC13" s="6" t="s">
+      <c r="BE13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD13" s="6" t="s">
-        <v>113</v>
+      <c r="BF13" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="4">
         <v>2021</v>
@@ -3248,7 +3334,7 @@
         <v>75</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V14" s="6" t="s">
         <v>52</v>
@@ -3313,50 +3399,56 @@
       <c r="AP14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ14" s="6" t="s">
+      <c r="AQ14" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR14" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS14" s="6" t="s">
+      <c r="AT14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AT14" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV14" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW14" s="6" t="s">
+      <c r="AY14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX14" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY14" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA14" s="6" t="s">
+      <c r="BC14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB14" s="6" t="s">
+      <c r="BD14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC14" s="6" t="s">
+      <c r="BE14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD14" s="6" t="s">
-        <v>113</v>
+      <c r="BF14" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -3418,7 +3510,7 @@
         <v>75</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V15" s="6" t="s">
         <v>52</v>
@@ -3483,52 +3575,58 @@
       <c r="AP15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ15" s="6" t="s">
+      <c r="AQ15" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR15" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS15" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="AT15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="AU15" s="6" t="s">
+      <c r="AW15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW15" s="6" t="s">
+      <c r="AX15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX15" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY15" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA15" s="6" t="s">
+      <c r="BC15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB15" s="6" t="s">
+      <c r="BD15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC15" s="6" t="s">
+      <c r="BE15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD15" s="6" t="s">
-        <v>113</v>
+      <c r="BF15" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:56" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4">
         <v>2021</v>
@@ -3588,7 +3686,7 @@
         <v>75</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V16" s="6" t="s">
         <v>52</v>
@@ -3653,50 +3751,56 @@
       <c r="AP16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ16" s="6" t="s">
+      <c r="AQ16" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS16" s="6" t="s">
+      <c r="AT16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX16" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AT16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AU16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW16" s="6" t="s">
+      <c r="AY16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX16" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY16" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BA16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BB16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC16" s="6" t="s">
+      <c r="BE16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD16" s="6" t="s">
+      <c r="BF16" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -3758,7 +3862,7 @@
         <v>75</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V17" s="6" t="s">
         <v>52</v>
@@ -3815,7 +3919,7 @@
         <v>55</v>
       </c>
       <c r="AN17" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AO17" s="6" t="s">
         <v>56</v>
@@ -3823,50 +3927,56 @@
       <c r="AP17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ17" s="6" t="s">
+      <c r="AQ17" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS17" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="AT17" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="AU17" s="6" t="s">
+      <c r="AW17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW17" s="6" t="s">
+      <c r="AX17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY17" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA17" s="6" t="s">
+      <c r="BC17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB17" s="6" t="s">
+      <c r="BD17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC17" s="6" t="s">
+      <c r="BE17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD17" s="6" t="s">
-        <v>113</v>
+      <c r="BF17" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -3928,7 +4038,7 @@
         <v>75</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V18" s="6" t="s">
         <v>52</v>
@@ -3985,7 +4095,7 @@
         <v>55</v>
       </c>
       <c r="AN18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AO18" s="6" t="s">
         <v>56</v>
@@ -3993,50 +4103,56 @@
       <c r="AP18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ18" s="6" t="s">
+      <c r="AQ18" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS18" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="AT18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV18" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AU18" s="6" t="s">
+      <c r="AW18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW18" s="6" t="s">
+      <c r="AX18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY18" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA18" s="6" t="s">
+      <c r="BC18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB18" s="6" t="s">
+      <c r="BD18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC18" s="6" t="s">
+      <c r="BE18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD18" s="6" t="s">
-        <v>113</v>
+      <c r="BF18" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
@@ -4098,7 +4214,7 @@
         <v>75</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V19" s="6" t="s">
         <v>52</v>
@@ -4143,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK19" s="6" t="s">
         <v>95</v>
@@ -4155,7 +4271,7 @@
         <v>55</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO19" s="6" t="s">
         <v>56</v>
@@ -4163,50 +4279,56 @@
       <c r="AP19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ19" s="6" t="s">
+      <c r="AQ19" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS19" s="6" t="s">
-        <v>109</v>
-      </c>
       <c r="AT19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AU19" s="6" t="s">
+      <c r="AW19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW19" s="6" t="s">
+      <c r="AX19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX19" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY19" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA19" s="6" t="s">
+      <c r="BC19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BB19" s="6" t="s">
+      <c r="BD19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC19" s="6" t="s">
+      <c r="BE19" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD19" s="6" t="s">
-        <v>113</v>
+      <c r="BF19" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:56" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -4333,47 +4455,53 @@
       <c r="AP20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AQ20" s="6" t="s">
+      <c r="AQ20" s="6">
+        <v>12</v>
+      </c>
+      <c r="AR20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS20" s="6" t="s">
+      <c r="AT20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AT20" s="6" t="s">
+      <c r="AV20" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AU20" s="6" t="s">
+      <c r="AW20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW20" s="6" t="s">
+      <c r="AX20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY20" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="AZ20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BA20" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB20" s="6" t="s">
+      <c r="BC20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BC20" s="6" t="s">
+      <c r="BE20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="BD20" s="6" t="s">
-        <v>113</v>
+      <c r="BF20" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/ES calc/Descriptive coding scheme for group-based interventions (data) MHV.xlsx
+++ b/ES calc/Descriptive coding scheme for group-based interventions (data) MHV.xlsx
@@ -919,8 +919,8 @@
   <dimension ref="A1:BF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB7" sqref="AB7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,7 +2928,7 @@
         <v>2013</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <v>73559907</v>
@@ -3104,7 +3104,7 @@
         <v>2021</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
         <v>73494601</v>
@@ -3280,7 +3280,7 @@
         <v>2021</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4">
         <v>73494601</v>
@@ -3456,7 +3456,7 @@
         <v>2013</v>
       </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4">
         <v>73559907</v>
@@ -3632,7 +3632,7 @@
         <v>2021</v>
       </c>
       <c r="C16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="4">
         <v>73494601</v>
@@ -3808,7 +3808,7 @@
         <v>2013</v>
       </c>
       <c r="C17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
         <v>73559907</v>
@@ -3984,7 +3984,7 @@
         <v>2013</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4">
         <v>73559907</v>
@@ -4160,7 +4160,7 @@
         <v>2013</v>
       </c>
       <c r="C19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
         <v>73559907</v>
@@ -4336,7 +4336,7 @@
         <v>2013</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
         <v>73559907</v>
